--- a/data/trans_orig/Q5402-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5402-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5031810-13CF-4B5A-B461-479E105B821D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{737E1F42-E67A-4282-B7C8-62DC070AB97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AABB4783-DB1A-4110-8866-7F19F3172191}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3C323164-8934-44C8-AFA4-93B976A4B90A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="131">
   <si>
     <t>Población según si son capaces de prepararse la comida en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -191,82 +191,82 @@
     <t>9,82%</t>
   </si>
   <si>
-    <t>7,48%</t>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
   </si>
   <si>
     <t>12,72%</t>
   </si>
   <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
     <t>78,43%</t>
   </si>
   <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
   </si>
   <si>
     <t>79,6%</t>
   </si>
   <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
   </si>
   <si>
     <t>79,1%</t>
   </si>
   <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
   </si>
   <si>
     <t>Población según si son capaces de prepararse la comida en 2015 (Tasa respuesta: 19,52%)</t>
@@ -278,157 +278,160 @@
     <t>4,37%</t>
   </si>
   <si>
-    <t>7,91%</t>
+    <t>7,97%</t>
   </si>
   <si>
     <t>6,36%</t>
   </si>
   <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
   </si>
   <si>
     <t>6,2%</t>
   </si>
   <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
   </si>
   <si>
     <t>8,08%</t>
   </si>
   <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de prepararse la comida en 2023 (Tasa respuesta: 31,24%)</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
     <t>6,29%</t>
   </si>
   <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de prepararse la comida en 2023 (Tasa respuesta: 31,24%)</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
+    <t>9,13%</t>
   </si>
   <si>
     <t>9,7%</t>
   </si>
   <si>
-    <t>7,96%</t>
+    <t>11,61%</t>
   </si>
   <si>
     <t>11,39%</t>
   </si>
   <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
   </si>
   <si>
     <t>10,71%</t>
   </si>
   <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
   </si>
   <si>
     <t>82,88%</t>
   </si>
   <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
   </si>
   <si>
     <t>80,46%</t>
   </si>
   <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
   </si>
   <si>
     <t>81,44%</t>
   </si>
   <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
   </si>
 </sst>
 </file>
@@ -840,7 +843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D67EEDA-3AFA-4A63-AD0B-354F8015553F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD3E53F-C17D-4551-909A-07B00FD61DB1}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2296,7 +2299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AE14D4-2555-4408-92E3-FF3AAC27E175}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2AD4AD-A18A-4ADC-8968-83CDD3AF7981}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3752,7 +3755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC60296-B611-4565-A447-B41286FF7ADC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D32F70-1C00-4176-BA01-9DA073B66CE8}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5208,7 +5211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD78441-98AE-46E7-8263-296BD4CD7C80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0BB280D-073E-4319-8AF3-678D8B1D2BE7}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6248,7 +6251,7 @@
         <v>106</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="H24" s="7">
         <v>150</v>
@@ -6257,13 +6260,13 @@
         <v>83635</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M24" s="7">
         <v>236</v>
@@ -6272,13 +6275,13 @@
         <v>135121</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6293,13 +6296,13 @@
         <v>67392</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="H25" s="7">
         <v>223</v>
@@ -6308,13 +6311,13 @@
         <v>116931</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M25" s="7">
         <v>325</v>
@@ -6323,13 +6326,13 @@
         <v>184323</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6344,13 +6347,13 @@
         <v>575640</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H26" s="7">
         <v>1334</v>
@@ -6359,13 +6362,13 @@
         <v>825636</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M26" s="7">
         <v>2170</v>
@@ -6374,13 +6377,13 @@
         <v>1401276</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6454,7 +6457,7 @@
         <v>106</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="H28" s="7">
         <v>150</v>
@@ -6463,13 +6466,13 @@
         <v>83635</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M28" s="7">
         <v>236</v>
@@ -6478,13 +6481,13 @@
         <v>135121</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6499,13 +6502,13 @@
         <v>67392</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="H29" s="7">
         <v>223</v>
@@ -6514,13 +6517,13 @@
         <v>116931</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M29" s="7">
         <v>325</v>
@@ -6529,13 +6532,13 @@
         <v>184323</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6550,13 +6553,13 @@
         <v>575640</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H30" s="7">
         <v>1334</v>
@@ -6565,13 +6568,13 @@
         <v>825636</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M30" s="7">
         <v>2170</v>
@@ -6580,13 +6583,13 @@
         <v>1401276</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5402-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5402-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{737E1F42-E67A-4282-B7C8-62DC070AB97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCEB755A-46EA-45CC-AF7C-8E443FDB5B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3C323164-8934-44C8-AFA4-93B976A4B90A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B3AE3703-C0DA-4664-822E-747DC2F44460}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="130">
   <si>
     <t>Población según si son capaces de prepararse la comida en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -101,82 +101,82 @@
     <t>5,21%</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
   </si>
   <si>
     <t>5,46%</t>
   </si>
   <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
   </si>
   <si>
     <t>5,35%</t>
   </si>
   <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
   </si>
   <si>
     <t>9,38%</t>
   </si>
   <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
   </si>
   <si>
     <t>7,2%</t>
   </si>
   <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
   </si>
   <si>
     <t>8,13%</t>
   </si>
   <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
   </si>
   <si>
     <t>85,42%</t>
   </si>
   <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
   </si>
   <si>
     <t>87,33%</t>
   </si>
   <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
   </si>
   <si>
     <t>86,52%</t>
   </si>
   <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
   </si>
   <si>
     <t>100%</t>
@@ -191,166 +191,163 @@
     <t>9,82%</t>
   </si>
   <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
   </si>
   <si>
     <t>10,14%</t>
   </si>
   <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
   </si>
   <si>
     <t>10,0%</t>
   </si>
   <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
   </si>
   <si>
     <t>11,75%</t>
   </si>
   <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
   </si>
   <si>
     <t>10,26%</t>
   </si>
   <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
   </si>
   <si>
     <t>10,9%</t>
   </si>
   <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
   </si>
   <si>
     <t>78,43%</t>
   </si>
   <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
   </si>
   <si>
     <t>79,6%</t>
   </si>
   <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
   </si>
   <si>
     <t>79,1%</t>
   </si>
   <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de prepararse la comida en 2015 (Tasa respuesta: 19,52%)</t>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de prepararse la comida en 2016 (Tasa respuesta: 19,52%)</t>
   </si>
   <si>
     <t>5,98%</t>
   </si>
   <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
   </si>
   <si>
     <t>6,36%</t>
   </si>
   <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
+    <t>8,54%</t>
   </si>
   <si>
     <t>6,2%</t>
   </si>
   <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
   </si>
   <si>
     <t>8,08%</t>
   </si>
   <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
   </si>
   <si>
     <t>9,14%</t>
   </si>
   <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
   </si>
   <si>
     <t>8,68%</t>
   </si>
   <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
   </si>
   <si>
     <t>85,94%</t>
   </si>
   <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
   </si>
   <si>
     <t>84,49%</t>
   </si>
   <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
   </si>
   <si>
     <t>85,12%</t>
   </si>
   <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
   </si>
   <si>
     <t>Población según si son capaces de prepararse la comida en 2023 (Tasa respuesta: 31,24%)</t>
@@ -843,7 +840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD3E53F-C17D-4551-909A-07B00FD61DB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3B1C43-0CD2-40EF-AC93-52661B370F5E}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2299,7 +2296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2AD4AD-A18A-4ADC-8968-83CDD3AF7981}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B8488A1-8D06-426F-A739-78A30718901C}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3755,7 +3752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D32F70-1C00-4176-BA01-9DA073B66CE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441B4F64-80EA-46F2-B605-FE7C4621C4EF}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4807,10 +4804,10 @@
         <v>80</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M24" s="7">
         <v>77</v>
@@ -4819,13 +4816,13 @@
         <v>84842</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4840,13 +4837,13 @@
         <v>47779</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H25" s="7">
         <v>55</v>
@@ -4855,13 +4852,13 @@
         <v>71140</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M25" s="7">
         <v>109</v>
@@ -4870,13 +4867,13 @@
         <v>118919</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4891,13 +4888,13 @@
         <v>508198</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H26" s="7">
         <v>563</v>
@@ -4906,13 +4903,13 @@
         <v>657300</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M26" s="7">
         <v>1096</v>
@@ -4921,13 +4918,13 @@
         <v>1165498</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,10 +5010,10 @@
         <v>80</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M28" s="7">
         <v>77</v>
@@ -5025,13 +5022,13 @@
         <v>84842</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5046,13 +5043,13 @@
         <v>47779</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H29" s="7">
         <v>55</v>
@@ -5061,13 +5058,13 @@
         <v>71140</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M29" s="7">
         <v>109</v>
@@ -5076,13 +5073,13 @@
         <v>118919</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5097,13 +5094,13 @@
         <v>508198</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H30" s="7">
         <v>563</v>
@@ -5112,13 +5109,13 @@
         <v>657300</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M30" s="7">
         <v>1096</v>
@@ -5127,13 +5124,13 @@
         <v>1165498</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,7 +5208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0BB280D-073E-4319-8AF3-678D8B1D2BE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A269E6F1-29C7-4729-A56E-D8DD2591D5C0}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5228,7 +5225,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6245,13 +6242,13 @@
         <v>51485</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H24" s="7">
         <v>150</v>
@@ -6260,13 +6257,13 @@
         <v>83635</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M24" s="7">
         <v>236</v>
@@ -6275,13 +6272,13 @@
         <v>135121</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6296,13 +6293,13 @@
         <v>67392</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H25" s="7">
         <v>223</v>
@@ -6311,13 +6308,13 @@
         <v>116931</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M25" s="7">
         <v>325</v>
@@ -6326,13 +6323,13 @@
         <v>184323</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6347,13 +6344,13 @@
         <v>575640</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H26" s="7">
         <v>1334</v>
@@ -6362,13 +6359,13 @@
         <v>825636</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M26" s="7">
         <v>2170</v>
@@ -6377,13 +6374,13 @@
         <v>1401276</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6451,13 +6448,13 @@
         <v>51485</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H28" s="7">
         <v>150</v>
@@ -6466,13 +6463,13 @@
         <v>83635</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M28" s="7">
         <v>236</v>
@@ -6481,13 +6478,13 @@
         <v>135121</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6502,13 +6499,13 @@
         <v>67392</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H29" s="7">
         <v>223</v>
@@ -6517,13 +6514,13 @@
         <v>116931</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M29" s="7">
         <v>325</v>
@@ -6532,13 +6529,13 @@
         <v>184323</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6553,13 +6550,13 @@
         <v>575640</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H30" s="7">
         <v>1334</v>
@@ -6568,13 +6565,13 @@
         <v>825636</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M30" s="7">
         <v>2170</v>
@@ -6583,13 +6580,13 @@
         <v>1401276</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5402-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5402-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCEB755A-46EA-45CC-AF7C-8E443FDB5B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BD96BA3-9A3C-403D-905A-12541968051B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B3AE3703-C0DA-4664-822E-747DC2F44460}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DE3F85AD-2008-4F8A-AE5F-F74E26D4A979}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -101,82 +101,82 @@
     <t>5,21%</t>
   </si>
   <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
   </si>
   <si>
     <t>5,46%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
   </si>
   <si>
     <t>5,35%</t>
   </si>
   <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
   </si>
   <si>
     <t>9,38%</t>
   </si>
   <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
   </si>
   <si>
     <t>7,2%</t>
   </si>
   <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
   </si>
   <si>
     <t>8,13%</t>
   </si>
   <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
   </si>
   <si>
     <t>85,42%</t>
   </si>
   <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
   </si>
   <si>
     <t>87,33%</t>
   </si>
   <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
   </si>
   <si>
     <t>86,52%</t>
   </si>
   <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
   </si>
   <si>
     <t>100%</t>
@@ -191,163 +191,166 @@
     <t>9,82%</t>
   </si>
   <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
   </si>
   <si>
     <t>10,14%</t>
   </si>
   <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de prepararse la comida en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
     <t>7,91%</t>
   </si>
   <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de prepararse la comida en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
     <t>6,36%</t>
   </si>
   <si>
-    <t>8,54%</t>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
   </si>
   <si>
     <t>6,2%</t>
   </si>
   <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
   </si>
   <si>
     <t>8,08%</t>
   </si>
   <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
   </si>
   <si>
     <t>9,14%</t>
   </si>
   <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
   </si>
   <si>
     <t>8,68%</t>
   </si>
   <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
   </si>
   <si>
     <t>85,94%</t>
   </si>
   <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
   </si>
   <si>
     <t>84,49%</t>
   </si>
   <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
   </si>
   <si>
     <t>85,12%</t>
   </si>
   <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
   </si>
   <si>
     <t>Población según si son capaces de prepararse la comida en 2023 (Tasa respuesta: 31,24%)</t>
@@ -356,79 +359,76 @@
     <t>7,41%</t>
   </si>
   <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
+    <t>6,05%</t>
   </si>
   <si>
     <t>8,15%</t>
   </si>
   <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
   </si>
   <si>
     <t>7,85%</t>
   </si>
   <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
   </si>
   <si>
     <t>9,7%</t>
   </si>
   <si>
-    <t>11,61%</t>
+    <t>7,96%</t>
   </si>
   <si>
     <t>11,39%</t>
   </si>
   <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
   </si>
   <si>
     <t>10,71%</t>
   </si>
   <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
   </si>
   <si>
     <t>82,88%</t>
   </si>
   <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
   </si>
   <si>
     <t>80,46%</t>
   </si>
   <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
   </si>
   <si>
     <t>81,44%</t>
   </si>
   <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
   </si>
 </sst>
 </file>
@@ -840,7 +840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3B1C43-0CD2-40EF-AC93-52661B370F5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D991BE9D-41BA-47C0-8D06-759FCE17754A}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2296,7 +2296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B8488A1-8D06-426F-A739-78A30718901C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A7439E-12BC-44F7-8A3F-CDCD0EEF9E61}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3752,7 +3752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441B4F64-80EA-46F2-B605-FE7C4621C4EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CAE249C-13C2-4EF9-8D16-637BBE6F5A58}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4804,10 +4804,10 @@
         <v>80</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M24" s="7">
         <v>77</v>
@@ -4816,13 +4816,13 @@
         <v>84842</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,13 +4837,13 @@
         <v>47779</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H25" s="7">
         <v>55</v>
@@ -4852,13 +4852,13 @@
         <v>71140</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M25" s="7">
         <v>109</v>
@@ -4867,13 +4867,13 @@
         <v>118919</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4888,13 +4888,13 @@
         <v>508198</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H26" s="7">
         <v>563</v>
@@ -4903,13 +4903,13 @@
         <v>657300</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M26" s="7">
         <v>1096</v>
@@ -4918,13 +4918,13 @@
         <v>1165498</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,10 +5010,10 @@
         <v>80</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M28" s="7">
         <v>77</v>
@@ -5022,13 +5022,13 @@
         <v>84842</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5043,13 +5043,13 @@
         <v>47779</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H29" s="7">
         <v>55</v>
@@ -5058,13 +5058,13 @@
         <v>71140</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M29" s="7">
         <v>109</v>
@@ -5073,13 +5073,13 @@
         <v>118919</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,13 +5094,13 @@
         <v>508198</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H30" s="7">
         <v>563</v>
@@ -5109,13 +5109,13 @@
         <v>657300</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M30" s="7">
         <v>1096</v>
@@ -5124,13 +5124,13 @@
         <v>1165498</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5208,7 +5208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A269E6F1-29C7-4729-A56E-D8DD2591D5C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87312212-8A4A-4B9F-AA0C-1A691BA01BB8}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5225,7 +5225,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6242,13 +6242,13 @@
         <v>51485</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="H24" s="7">
         <v>150</v>
@@ -6296,10 +6296,10 @@
         <v>113</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="H25" s="7">
         <v>223</v>
@@ -6448,13 +6448,13 @@
         <v>51485</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="H28" s="7">
         <v>150</v>
@@ -6502,10 +6502,10 @@
         <v>113</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="H29" s="7">
         <v>223</v>

--- a/data/trans_orig/Q5402-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5402-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BD96BA3-9A3C-403D-905A-12541968051B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0B98811-39E5-4A57-8E42-BA545D45BDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DE3F85AD-2008-4F8A-AE5F-F74E26D4A979}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EBADB9B4-4F67-4184-84C1-156B2CF8BAE1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="335">
   <si>
     <t>Población según si son capaces de prepararse la comida en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>No puede</t>
@@ -83,19 +83,187 @@
     <t>Sin ayuda</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>65 y más</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
   </si>
   <si>
     <t>5,21%</t>
@@ -179,21 +347,171 @@
     <t>88,45%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
     <t>Población según si son capaces de prepararse la comida en 2012 (Tasa respuesta: 18,41%)</t>
   </si>
   <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
     <t>9,82%</t>
   </si>
   <si>
-    <t>7,48%</t>
-  </si>
-  <si>
     <t>12,72%</t>
   </si>
   <si>
@@ -272,6 +590,162 @@
     <t>Población según si son capaces de prepararse la comida en 2016 (Tasa respuesta: 19,52%)</t>
   </si>
   <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
     <t>5,98%</t>
   </si>
   <si>
@@ -287,9 +761,6 @@
     <t>4,55%</t>
   </si>
   <si>
-    <t>8,76%</t>
-  </si>
-  <si>
     <t>6,2%</t>
   </si>
   <si>
@@ -302,9 +773,6 @@
     <t>8,08%</t>
   </si>
   <si>
-    <t>6,29%</t>
-  </si>
-  <si>
     <t>10,51%</t>
   </si>
   <si>
@@ -314,9 +782,6 @@
     <t>6,98%</t>
   </si>
   <si>
-    <t>11,65%</t>
-  </si>
-  <si>
     <t>8,68%</t>
   </si>
   <si>
@@ -356,79 +821,229 @@
     <t>Población según si son capaces de prepararse la comida en 2023 (Tasa respuesta: 31,24%)</t>
   </si>
   <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
   </si>
 </sst>
 </file>
@@ -840,8 +1455,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D991BE9D-41BA-47C0-8D06-759FCE17754A}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E017F1-67CD-4F0C-9FDE-3AD6F7C0968E}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1868,10 +2483,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D24" s="7">
-        <v>26160</v>
+        <v>6709</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -1883,10 +2498,10 @@
         <v>21</v>
       </c>
       <c r="H24" s="7">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="I24" s="7">
-        <v>36969</v>
+        <v>6683</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>22</v>
@@ -1898,10 +2513,10 @@
         <v>24</v>
       </c>
       <c r="M24" s="7">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="N24" s="7">
-        <v>63129</v>
+        <v>13392</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>25</v>
@@ -1919,10 +2534,10 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D25" s="7">
-        <v>47117</v>
+        <v>18532</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>28</v>
@@ -1934,10 +2549,10 @@
         <v>30</v>
       </c>
       <c r="H25" s="7">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I25" s="7">
-        <v>48760</v>
+        <v>13994</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>31</v>
@@ -1949,10 +2564,10 @@
         <v>33</v>
       </c>
       <c r="M25" s="7">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="N25" s="7">
-        <v>95877</v>
+        <v>32527</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>34</v>
@@ -1970,10 +2585,10 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>445</v>
+        <v>277</v>
       </c>
       <c r="D26" s="7">
-        <v>429189</v>
+        <v>267342</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>37</v>
@@ -1985,10 +2600,10 @@
         <v>39</v>
       </c>
       <c r="H26" s="7">
-        <v>582</v>
+        <v>349</v>
       </c>
       <c r="I26" s="7">
-        <v>591113</v>
+        <v>322257</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>40</v>
@@ -2000,10 +2615,10 @@
         <v>42</v>
       </c>
       <c r="M26" s="7">
-        <v>1027</v>
+        <v>626</v>
       </c>
       <c r="N26" s="7">
-        <v>1020303</v>
+        <v>589599</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>43</v>
@@ -2021,10 +2636,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D27" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>46</v>
@@ -2036,10 +2651,10 @@
         <v>46</v>
       </c>
       <c r="H27" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I27" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>46</v>
@@ -2051,10 +2666,10 @@
         <v>46</v>
       </c>
       <c r="M27" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N27" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>46</v>
@@ -2068,55 +2683,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D28" s="7">
-        <v>26160</v>
+        <v>19451</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I28" s="7">
-        <v>36969</v>
+        <v>30286</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="M28" s="7">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="N28" s="7">
-        <v>63129</v>
+        <v>49737</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2125,49 +2740,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D29" s="7">
-        <v>47117</v>
+        <v>28584</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="G29" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29" s="7">
         <v>30</v>
       </c>
-      <c r="H29" s="7">
-        <v>45</v>
-      </c>
       <c r="I29" s="7">
-        <v>48760</v>
+        <v>34765</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="M29" s="7">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="N29" s="7">
-        <v>95877</v>
+        <v>63350</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2176,49 +2791,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>445</v>
+        <v>168</v>
       </c>
       <c r="D30" s="7">
-        <v>429189</v>
+        <v>161848</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="H30" s="7">
-        <v>582</v>
+        <v>233</v>
       </c>
       <c r="I30" s="7">
-        <v>591113</v>
+        <v>268856</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="M30" s="7">
-        <v>1027</v>
+        <v>401</v>
       </c>
       <c r="N30" s="7">
-        <v>1020303</v>
+        <v>430704</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2227,63 +2842,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>220</v>
+      </c>
+      <c r="D31" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="7">
+        <v>290</v>
+      </c>
+      <c r="I31" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" s="7">
+        <v>510</v>
+      </c>
+      <c r="N31" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>28</v>
+      </c>
+      <c r="D32" s="7">
+        <v>26160</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" s="7">
+        <v>34</v>
+      </c>
+      <c r="I32" s="7">
+        <v>36969</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M32" s="7">
+        <v>62</v>
+      </c>
+      <c r="N32" s="7">
+        <v>63129</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>50</v>
+      </c>
+      <c r="D33" s="7">
+        <v>47117</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H33" s="7">
+        <v>45</v>
+      </c>
+      <c r="I33" s="7">
+        <v>48760</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M33" s="7">
+        <v>95</v>
+      </c>
+      <c r="N33" s="7">
+        <v>95877</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>445</v>
+      </c>
+      <c r="D34" s="7">
+        <v>429189</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H34" s="7">
+        <v>582</v>
+      </c>
+      <c r="I34" s="7">
+        <v>591113</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1027</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1020303</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>523</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>502466</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="7">
         <v>661</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>676842</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M35" s="7">
         <v>1184</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>1179308</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="O35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2296,8 +3118,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A7439E-12BC-44F7-8A3F-CDCD0EEF9E61}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5736151-1D11-4FEF-98FC-7F6C51C687F9}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2313,7 +3135,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3324,49 +4146,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="D24" s="7">
-        <v>54948</v>
+        <v>12199</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="H24" s="7">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="I24" s="7">
-        <v>75359</v>
+        <v>10668</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="M24" s="7">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="N24" s="7">
-        <v>130308</v>
+        <v>22867</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3375,49 +4197,49 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="D25" s="7">
-        <v>65740</v>
+        <v>21967</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="H25" s="7">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="I25" s="7">
-        <v>76193</v>
+        <v>19792</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="M25" s="7">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="N25" s="7">
-        <v>141933</v>
+        <v>41759</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,49 +4248,49 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>398</v>
+        <v>251</v>
       </c>
       <c r="D26" s="7">
-        <v>438949</v>
+        <v>275620</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="H26" s="7">
-        <v>555</v>
+        <v>314</v>
       </c>
       <c r="I26" s="7">
-        <v>591423</v>
+        <v>323536</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="M26" s="7">
-        <v>953</v>
+        <v>565</v>
       </c>
       <c r="N26" s="7">
-        <v>1030372</v>
+        <v>599156</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,10 +4299,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D27" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>46</v>
@@ -3492,10 +4314,10 @@
         <v>46</v>
       </c>
       <c r="H27" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I27" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>46</v>
@@ -3507,10 +4329,10 @@
         <v>46</v>
       </c>
       <c r="M27" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N27" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>46</v>
@@ -3524,55 +4346,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D28" s="7">
-        <v>54948</v>
+        <v>42749</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="H28" s="7">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I28" s="7">
-        <v>75359</v>
+        <v>64691</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="M28" s="7">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="N28" s="7">
-        <v>130308</v>
+        <v>107440</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,49 +4403,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D29" s="7">
-        <v>65740</v>
+        <v>43773</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="H29" s="7">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="I29" s="7">
-        <v>76193</v>
+        <v>56402</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="M29" s="7">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="N29" s="7">
-        <v>141933</v>
+        <v>100174</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>66</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3632,49 +4454,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>398</v>
+        <v>147</v>
       </c>
       <c r="D30" s="7">
-        <v>438949</v>
+        <v>163329</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>68</v>
+        <v>148</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>69</v>
+        <v>149</v>
       </c>
       <c r="H30" s="7">
-        <v>555</v>
+        <v>241</v>
       </c>
       <c r="I30" s="7">
-        <v>591423</v>
+        <v>267887</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="M30" s="7">
-        <v>953</v>
+        <v>388</v>
       </c>
       <c r="N30" s="7">
-        <v>1030372</v>
+        <v>431215</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>75</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,63 +4505,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>222</v>
+      </c>
+      <c r="D31" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="7">
+        <v>350</v>
+      </c>
+      <c r="I31" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" s="7">
+        <v>572</v>
+      </c>
+      <c r="N31" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>49</v>
+      </c>
+      <c r="D32" s="7">
+        <v>54948</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H32" s="7">
+        <v>68</v>
+      </c>
+      <c r="I32" s="7">
+        <v>75359</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="M32" s="7">
+        <v>117</v>
+      </c>
+      <c r="N32" s="7">
+        <v>130308</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>57</v>
+      </c>
+      <c r="D33" s="7">
+        <v>65740</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H33" s="7">
+        <v>71</v>
+      </c>
+      <c r="I33" s="7">
+        <v>76193</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="M33" s="7">
+        <v>128</v>
+      </c>
+      <c r="N33" s="7">
+        <v>141933</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>398</v>
+      </c>
+      <c r="D34" s="7">
+        <v>438949</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H34" s="7">
+        <v>555</v>
+      </c>
+      <c r="I34" s="7">
+        <v>591423</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="M34" s="7">
+        <v>953</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1030372</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>504</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>559637</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="7">
         <v>694</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>742975</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M35" s="7">
         <v>1198</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>1302612</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="O35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3752,8 +4781,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CAE249C-13C2-4EF9-8D16-637BBE6F5A58}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B8516E-F3A5-4E4F-816D-48D02718403E}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3769,7 +4798,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>182</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4780,49 +5809,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D24" s="7">
-        <v>35351</v>
+        <v>6906</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="H24" s="7">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="I24" s="7">
-        <v>49491</v>
+        <v>2006</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="M24" s="7">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="N24" s="7">
-        <v>84842</v>
+        <v>8912</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>83</v>
+        <v>189</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>84</v>
+        <v>190</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>85</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,49 +5860,49 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D25" s="7">
-        <v>47779</v>
+        <v>11930</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>87</v>
+        <v>192</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H25" s="7">
+        <v>14</v>
+      </c>
+      <c r="I25" s="7">
+        <v>14721</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="M25" s="7">
+        <v>26</v>
+      </c>
+      <c r="N25" s="7">
+        <v>26651</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="H25" s="7">
-        <v>55</v>
-      </c>
-      <c r="I25" s="7">
-        <v>71140</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M25" s="7">
-        <v>109</v>
-      </c>
-      <c r="N25" s="7">
-        <v>118919</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4882,49 +5911,49 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>533</v>
+        <v>306</v>
       </c>
       <c r="D26" s="7">
-        <v>508198</v>
+        <v>315493</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>95</v>
+        <v>199</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>96</v>
+        <v>200</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>97</v>
+        <v>201</v>
       </c>
       <c r="H26" s="7">
-        <v>563</v>
+        <v>338</v>
       </c>
       <c r="I26" s="7">
-        <v>657300</v>
+        <v>361035</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>98</v>
+        <v>202</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>99</v>
+        <v>203</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>100</v>
+        <v>204</v>
       </c>
       <c r="M26" s="7">
-        <v>1096</v>
+        <v>644</v>
       </c>
       <c r="N26" s="7">
-        <v>1165498</v>
+        <v>676529</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>101</v>
+        <v>205</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>102</v>
+        <v>206</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>103</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,10 +5962,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D27" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>46</v>
@@ -4948,10 +5977,10 @@
         <v>46</v>
       </c>
       <c r="H27" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I27" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>46</v>
@@ -4963,10 +5992,10 @@
         <v>46</v>
       </c>
       <c r="M27" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N27" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>46</v>
@@ -4980,55 +6009,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D28" s="7">
-        <v>35351</v>
+        <v>28445</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>77</v>
+        <v>208</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>78</v>
+        <v>209</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="H28" s="7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I28" s="7">
-        <v>49491</v>
+        <v>47485</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>80</v>
+        <v>211</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>81</v>
+        <v>212</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="M28" s="7">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="N28" s="7">
-        <v>84842</v>
+        <v>75930</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>84</v>
+        <v>215</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>85</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5037,49 +6066,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D29" s="7">
-        <v>47779</v>
+        <v>35848</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>86</v>
+        <v>217</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>87</v>
+        <v>218</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>88</v>
+        <v>219</v>
       </c>
       <c r="H29" s="7">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="I29" s="7">
-        <v>71140</v>
+        <v>56419</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>89</v>
+        <v>220</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>90</v>
+        <v>221</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>91</v>
+        <v>222</v>
       </c>
       <c r="M29" s="7">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="N29" s="7">
-        <v>118919</v>
+        <v>92268</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>92</v>
+        <v>223</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>93</v>
+        <v>224</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>94</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5088,49 +6117,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>533</v>
+        <v>227</v>
       </c>
       <c r="D30" s="7">
-        <v>508198</v>
+        <v>192705</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>95</v>
+        <v>226</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>96</v>
+        <v>227</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>97</v>
+        <v>228</v>
       </c>
       <c r="H30" s="7">
-        <v>563</v>
+        <v>225</v>
       </c>
       <c r="I30" s="7">
-        <v>657300</v>
+        <v>296265</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>98</v>
+        <v>229</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>99</v>
+        <v>230</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>100</v>
+        <v>231</v>
       </c>
       <c r="M30" s="7">
-        <v>1096</v>
+        <v>452</v>
       </c>
       <c r="N30" s="7">
-        <v>1165498</v>
+        <v>488969</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>101</v>
+        <v>232</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>102</v>
+        <v>233</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>103</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5139,63 +6168,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>302</v>
+      </c>
+      <c r="D31" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="7">
+        <v>301</v>
+      </c>
+      <c r="I31" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" s="7">
+        <v>603</v>
+      </c>
+      <c r="N31" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>40</v>
+      </c>
+      <c r="D32" s="7">
+        <v>35351</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H32" s="7">
+        <v>37</v>
+      </c>
+      <c r="I32" s="7">
+        <v>49491</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M32" s="7">
+        <v>77</v>
+      </c>
+      <c r="N32" s="7">
+        <v>84842</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>54</v>
+      </c>
+      <c r="D33" s="7">
+        <v>47779</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H33" s="7">
+        <v>55</v>
+      </c>
+      <c r="I33" s="7">
+        <v>71140</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M33" s="7">
+        <v>109</v>
+      </c>
+      <c r="N33" s="7">
+        <v>118919</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>533</v>
+      </c>
+      <c r="D34" s="7">
+        <v>508198</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H34" s="7">
+        <v>563</v>
+      </c>
+      <c r="I34" s="7">
+        <v>657300</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1096</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1165498</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>627</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>591328</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="7">
         <v>655</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>777931</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M35" s="7">
         <v>1282</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>1369259</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="O35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5208,8 +6444,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87312212-8A4A-4B9F-AA0C-1A691BA01BB8}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A95663-71DA-4604-8901-14C3181BCF2E}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5225,7 +6461,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>259</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6236,49 +7472,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="D24" s="7">
-        <v>51485</v>
+        <v>11287</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>105</v>
+        <v>260</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>106</v>
+        <v>192</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>33</v>
+        <v>261</v>
       </c>
       <c r="H24" s="7">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="I24" s="7">
-        <v>83635</v>
+        <v>5513</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>107</v>
+        <v>262</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>108</v>
+        <v>263</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>109</v>
+        <v>264</v>
       </c>
       <c r="M24" s="7">
-        <v>236</v>
+        <v>30</v>
       </c>
       <c r="N24" s="7">
-        <v>135121</v>
+        <v>16800</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>110</v>
+        <v>264</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>111</v>
+        <v>265</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6287,49 +7523,49 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="D25" s="7">
-        <v>67392</v>
+        <v>21283</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>113</v>
+        <v>267</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>114</v>
+        <v>268</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>91</v>
+        <v>269</v>
       </c>
       <c r="H25" s="7">
-        <v>223</v>
+        <v>52</v>
       </c>
       <c r="I25" s="7">
-        <v>116931</v>
+        <v>24940</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>115</v>
+        <v>270</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>116</v>
+        <v>271</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>117</v>
+        <v>272</v>
       </c>
       <c r="M25" s="7">
-        <v>325</v>
+        <v>88</v>
       </c>
       <c r="N25" s="7">
-        <v>184323</v>
+        <v>46223</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>118</v>
+        <v>273</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>119</v>
+        <v>266</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>120</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6338,49 +7574,49 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>836</v>
+        <v>514</v>
       </c>
       <c r="D26" s="7">
-        <v>575640</v>
+        <v>334880</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>121</v>
+        <v>275</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>122</v>
+        <v>276</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>123</v>
+        <v>277</v>
       </c>
       <c r="H26" s="7">
-        <v>1334</v>
+        <v>763</v>
       </c>
       <c r="I26" s="7">
-        <v>825636</v>
+        <v>577505</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>124</v>
+        <v>278</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>125</v>
+        <v>279</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>126</v>
+        <v>280</v>
       </c>
       <c r="M26" s="7">
-        <v>2170</v>
+        <v>1277</v>
       </c>
       <c r="N26" s="7">
-        <v>1401276</v>
+        <v>912385</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>127</v>
+        <v>281</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>128</v>
+        <v>282</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>129</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6389,10 +7625,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1024</v>
+        <v>569</v>
       </c>
       <c r="D27" s="7">
-        <v>694517</v>
+        <v>367450</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>46</v>
@@ -6404,10 +7640,10 @@
         <v>46</v>
       </c>
       <c r="H27" s="7">
-        <v>1707</v>
+        <v>826</v>
       </c>
       <c r="I27" s="7">
-        <v>1026202</v>
+        <v>607958</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>46</v>
@@ -6419,10 +7655,10 @@
         <v>46</v>
       </c>
       <c r="M27" s="7">
-        <v>2731</v>
+        <v>1395</v>
       </c>
       <c r="N27" s="7">
-        <v>1720720</v>
+        <v>975408</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>46</v>
@@ -6436,55 +7672,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D28" s="7">
-        <v>51485</v>
+        <v>37346</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>105</v>
+        <v>283</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>106</v>
+        <v>284</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>33</v>
+        <v>285</v>
       </c>
       <c r="H28" s="7">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="I28" s="7">
-        <v>83635</v>
+        <v>69486</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>107</v>
+        <v>286</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>108</v>
+        <v>287</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>109</v>
+        <v>288</v>
       </c>
       <c r="M28" s="7">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="N28" s="7">
-        <v>135121</v>
+        <v>106831</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>110</v>
+        <v>289</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>111</v>
+        <v>290</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>112</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6493,49 +7729,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="D29" s="7">
-        <v>67392</v>
+        <v>42043</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>113</v>
+        <v>292</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>114</v>
+        <v>293</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>91</v>
+        <v>294</v>
       </c>
       <c r="H29" s="7">
-        <v>223</v>
+        <v>171</v>
       </c>
       <c r="I29" s="7">
-        <v>116931</v>
+        <v>79107</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>115</v>
+        <v>295</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>116</v>
+        <v>296</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>117</v>
+        <v>297</v>
       </c>
       <c r="M29" s="7">
-        <v>325</v>
+        <v>237</v>
       </c>
       <c r="N29" s="7">
-        <v>184323</v>
+        <v>121150</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>118</v>
+        <v>298</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>119</v>
+        <v>299</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>120</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6544,49 +7780,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>836</v>
+        <v>322</v>
       </c>
       <c r="D30" s="7">
-        <v>575640</v>
+        <v>201161</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>121</v>
+        <v>301</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>122</v>
+        <v>302</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>123</v>
+        <v>303</v>
       </c>
       <c r="H30" s="7">
-        <v>1334</v>
+        <v>571</v>
       </c>
       <c r="I30" s="7">
-        <v>825636</v>
+        <v>277238</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>124</v>
+        <v>304</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>125</v>
+        <v>305</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>126</v>
+        <v>306</v>
       </c>
       <c r="M30" s="7">
-        <v>2170</v>
+        <v>893</v>
       </c>
       <c r="N30" s="7">
-        <v>1401276</v>
+        <v>478400</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>127</v>
+        <v>307</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>128</v>
+        <v>308</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>129</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6595,63 +7831,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>455</v>
+      </c>
+      <c r="D31" s="7">
+        <v>280550</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="7">
+        <v>881</v>
+      </c>
+      <c r="I31" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1336</v>
+      </c>
+      <c r="N31" s="7">
+        <v>706381</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>86</v>
+      </c>
+      <c r="D32" s="7">
+        <v>48633</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H32" s="7">
+        <v>150</v>
+      </c>
+      <c r="I32" s="7">
+        <v>74999</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="M32" s="7">
+        <v>236</v>
+      </c>
+      <c r="N32" s="7">
+        <v>123631</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>102</v>
+      </c>
+      <c r="D33" s="7">
+        <v>63326</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H33" s="7">
+        <v>223</v>
+      </c>
+      <c r="I33" s="7">
+        <v>104047</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="M33" s="7">
+        <v>325</v>
+      </c>
+      <c r="N33" s="7">
+        <v>167373</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>836</v>
+      </c>
+      <c r="D34" s="7">
+        <v>536041</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1334</v>
+      </c>
+      <c r="I34" s="7">
+        <v>854743</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="M34" s="7">
+        <v>2170</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1390784</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>1024</v>
       </c>
-      <c r="D31" s="7">
-        <v>694517</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>648000</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="7">
         <v>1707</v>
       </c>
-      <c r="I31" s="7">
-        <v>1026202</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>1033789</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M35" s="7">
         <v>2731</v>
       </c>
-      <c r="N31" s="7">
-        <v>1720720</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="N35" s="7">
+        <v>1681789</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
